--- a/threeWay_FE/stateCIT_rates_1976_2023.xlsx
+++ b/threeWay_FE/stateCIT_rates_1976_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/ST-Apportionment/threeWay_FE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CE8486-3EC8-3645-8515-75380C43EFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800DE68-1635-A743-BA66-572EF27CA0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15640" yWindow="-3100" windowWidth="15640" windowHeight="17500" xr2:uid="{902382AD-2791-2E4C-8E2C-F6478351B2FD}"/>
+    <workbookView xWindow="-15660" yWindow="-3100" windowWidth="15640" windowHeight="17500" xr2:uid="{902382AD-2791-2E4C-8E2C-F6478351B2FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,14 +864,14 @@
   <dimension ref="A1:AW51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ52" sqref="AQ52"/>
+      <selection activeCell="AY6" sqref="AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="28" width="10.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="29" max="39" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="42" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
@@ -1163,6 +1163,28 @@
       <c r="AQ2">
         <v>6.5</v>
       </c>
+      <c r="AR2">
+        <v>6.5</v>
+      </c>
+      <c r="AS2">
+        <f>AR2</f>
+        <v>6.5</v>
+      </c>
+      <c r="AT2">
+        <f>AS2</f>
+        <v>6.5</v>
+      </c>
+      <c r="AU2">
+        <f>AT2</f>
+        <v>6.5</v>
+      </c>
+      <c r="AV2">
+        <f>AU2</f>
+        <v>6.5</v>
+      </c>
+      <c r="AW2">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="1" t="s">
@@ -1305,6 +1327,28 @@
       <c r="AQ3">
         <v>9.4</v>
       </c>
+      <c r="AR3">
+        <v>9.4</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AV7" si="2">AR3</f>
+        <v>9.4</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="AW3">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="4" spans="1:49">
       <c r="A4" s="1" t="s">
@@ -1391,7 +1435,7 @@
         <v>6.97</v>
       </c>
       <c r="AD4">
-        <f t="shared" ref="AD4:AD51" si="2">AC4</f>
+        <f t="shared" ref="AD4:AD51" si="3">AC4</f>
         <v>6.97</v>
       </c>
       <c r="AE4">
@@ -1441,6 +1485,28 @@
         <v>5.5</v>
       </c>
       <c r="AQ4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AR4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AW4">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1533,57 +1599,77 @@
         <v>6.5</v>
       </c>
       <c r="AD5">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AO5">
+        <v>6.5</v>
+      </c>
+      <c r="AP5">
+        <v>6.5</v>
+      </c>
+      <c r="AQ5">
+        <v>6.5</v>
+      </c>
+      <c r="AR5">
+        <v>6.5</v>
+      </c>
+      <c r="AS5">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
+      <c r="AT5">
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="AO5">
-        <v>6.5</v>
-      </c>
-      <c r="AP5">
-        <v>6.5</v>
-      </c>
-      <c r="AQ5">
-        <v>6.5</v>
+      <c r="AU5">
+        <v>6.2</v>
+      </c>
+      <c r="AV5">
+        <v>5.9</v>
+      </c>
+      <c r="AW5">
+        <v>5.3</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -1673,56 +1759,78 @@
         <v>8.84</v>
       </c>
       <c r="AD6">
+        <f t="shared" si="3"/>
+        <v>8.84</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="0"/>
+        <v>8.84</v>
+      </c>
+      <c r="AO6">
+        <v>8.84</v>
+      </c>
+      <c r="AP6">
+        <v>8.84</v>
+      </c>
+      <c r="AQ6">
+        <v>8.84</v>
+      </c>
+      <c r="AR6">
+        <v>8.84</v>
+      </c>
+      <c r="AS6">
         <f t="shared" si="2"/>
         <v>8.84</v>
       </c>
-      <c r="AE6">
-        <f t="shared" si="0"/>
+      <c r="AT6">
+        <f t="shared" si="2"/>
         <v>8.84</v>
       </c>
-      <c r="AF6">
-        <f t="shared" si="0"/>
+      <c r="AU6">
+        <f>AT6</f>
         <v>8.84</v>
       </c>
-      <c r="AG6">
-        <f t="shared" si="0"/>
+      <c r="AV6">
+        <f>AU6</f>
         <v>8.84</v>
       </c>
-      <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>8.84</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>8.84</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="0"/>
-        <v>8.84</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="0"/>
-        <v>8.84</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" si="0"/>
-        <v>8.84</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" si="0"/>
-        <v>8.84</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="0"/>
-        <v>8.84</v>
-      </c>
-      <c r="AO6">
-        <v>8.84</v>
-      </c>
-      <c r="AP6">
-        <v>8.84</v>
-      </c>
-      <c r="AQ6">
+      <c r="AW6">
         <v>8.84</v>
       </c>
     </row>
@@ -1815,57 +1923,78 @@
         <v>4.63</v>
       </c>
       <c r="AD7">
+        <f t="shared" si="3"/>
+        <v>4.63</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+      <c r="AO7">
+        <v>4.63</v>
+      </c>
+      <c r="AP7">
+        <v>4.63</v>
+      </c>
+      <c r="AQ7">
+        <v>4.63</v>
+      </c>
+      <c r="AR7">
+        <v>4.63</v>
+      </c>
+      <c r="AS7">
         <f t="shared" si="2"/>
         <v>4.63</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AM7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-      <c r="AO7">
-        <v>4.63</v>
-      </c>
-      <c r="AP7">
-        <v>4.63</v>
-      </c>
-      <c r="AQ7">
-        <v>4.63</v>
+      <c r="AT7">
+        <v>4.55</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" ref="AU7:AW9" si="4">AT7</f>
+        <v>4.55</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="4"/>
+        <v>4.55</v>
+      </c>
+      <c r="AW7">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -1957,7 +2086,7 @@
         <v>7.5</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="AE8">
@@ -1992,11 +2121,11 @@
         <v>9</v>
       </c>
       <c r="AM8">
-        <f t="shared" ref="AM8:AN12" si="3">AL8</f>
+        <f t="shared" ref="AM8:AN12" si="5">AL8</f>
         <v>9</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AO8">
@@ -2007,6 +2136,28 @@
       </c>
       <c r="AQ8">
         <v>9</v>
+      </c>
+      <c r="AR8">
+        <v>8.25</v>
+      </c>
+      <c r="AS8">
+        <v>7.5</v>
+      </c>
+      <c r="AT8">
+        <f>AS8</f>
+        <v>7.5</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="AW8">
+        <f>AV8</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -2096,7 +2247,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="AE9">
@@ -2132,11 +2283,11 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="AO9">
@@ -2146,6 +2297,29 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AQ9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AR9">
+        <f>AQ9</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AS9">
+        <f>AR9</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AT9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="4"/>
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -2238,47 +2412,47 @@
         <v>5.5</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="AM10">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
+      <c r="AE10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
       <c r="AN10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="AO10">
@@ -2288,6 +2462,27 @@
         <v>5.5</v>
       </c>
       <c r="AQ10">
+        <v>5.5</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" ref="AR10:AR13" si="6">AQ10</f>
+        <v>5.5</v>
+      </c>
+      <c r="AS10">
+        <f>AR10</f>
+        <v>5.5</v>
+      </c>
+      <c r="AT10">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="AU10">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="AV10">
+        <v>5.5</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" ref="AW10:AW12" si="7">AV10</f>
         <v>5.5</v>
       </c>
     </row>
@@ -2380,47 +2575,47 @@
         <v>6</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AM11">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="AE11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="AN11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AO11">
@@ -2431,6 +2626,28 @@
       </c>
       <c r="AQ11">
         <v>6</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AS11">
+        <v>5.75</v>
+      </c>
+      <c r="AT11">
+        <f>AS11</f>
+        <v>5.75</v>
+      </c>
+      <c r="AU11">
+        <f>AT11</f>
+        <v>5.75</v>
+      </c>
+      <c r="AV11">
+        <v>5.75</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="7"/>
+        <v>5.75</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2522,47 +2739,47 @@
         <v>6.4</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="AM12">
         <f t="shared" si="3"/>
         <v>6.4</v>
       </c>
+      <c r="AE12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="5"/>
+        <v>6.4</v>
+      </c>
       <c r="AN12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4</v>
       </c>
       <c r="AO12">
@@ -2572,6 +2789,28 @@
         <v>6.4</v>
       </c>
       <c r="AQ12">
+        <v>6.4</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="6"/>
+        <v>6.4</v>
+      </c>
+      <c r="AS12">
+        <v>6.4</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" ref="AT12:AU14" si="8">AS12</f>
+        <v>6.4</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="8"/>
+        <v>6.4</v>
+      </c>
+      <c r="AV12">
+        <v>6.4</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
     </row>
@@ -2664,7 +2903,7 @@
         <v>7.6</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
       <c r="AE13">
@@ -2703,7 +2942,7 @@
         <v>7.4</v>
       </c>
       <c r="AN13">
-        <f t="shared" ref="AN13:AN14" si="4">AM13</f>
+        <f t="shared" ref="AN13:AN14" si="9">AM13</f>
         <v>7.4</v>
       </c>
       <c r="AO13">
@@ -2714,6 +2953,27 @@
       </c>
       <c r="AQ13">
         <v>7.4</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="6"/>
+        <v>7.4</v>
+      </c>
+      <c r="AS13">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="8"/>
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="8"/>
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>5.8</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2820,25 +3080,25 @@
         <v>7.3</v>
       </c>
       <c r="AI14">
-        <f t="shared" ref="AI14:AJ16" si="5">AH14</f>
+        <f t="shared" ref="AI14:AJ16" si="10">AH14</f>
         <v>7.3</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.3</v>
       </c>
       <c r="AK14">
         <v>9.5</v>
       </c>
       <c r="AL14">
-        <f t="shared" ref="AL14:AN21" si="6">AK14</f>
+        <f t="shared" ref="AL14:AN21" si="11">AK14</f>
         <v>9.5</v>
       </c>
       <c r="AM14">
         <v>9.5</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
       <c r="AO14">
@@ -2849,6 +3109,26 @@
       </c>
       <c r="AQ14">
         <v>7.75</v>
+      </c>
+      <c r="AR14">
+        <v>9.5</v>
+      </c>
+      <c r="AS14">
+        <v>9.5</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="8"/>
+        <v>9.5</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="8"/>
+        <v>9.5</v>
+      </c>
+      <c r="AV14">
+        <v>9.5</v>
+      </c>
+      <c r="AW14">
+        <v>9.5</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2958,18 +3238,18 @@
         <v>8.5</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.5</v>
       </c>
       <c r="AK15">
         <v>8.5</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
       <c r="AM15">
@@ -2986,6 +3266,24 @@
       </c>
       <c r="AQ15">
         <v>6.25</v>
+      </c>
+      <c r="AR15">
+        <v>6</v>
+      </c>
+      <c r="AS15">
+        <v>5.75</v>
+      </c>
+      <c r="AT15">
+        <v>5.5</v>
+      </c>
+      <c r="AU15">
+        <v>5.25</v>
+      </c>
+      <c r="AV15">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AW15">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -3073,7 +3371,7 @@
         <v>12</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="AE16">
@@ -3093,18 +3391,18 @@
         <v>12</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AK16">
         <v>12</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AM16">
@@ -3124,8 +3422,29 @@
       <c r="AQ16">
         <v>12</v>
       </c>
+      <c r="AR16">
+        <f>AQ16</f>
+        <v>12</v>
+      </c>
+      <c r="AS16">
+        <v>12</v>
+      </c>
+      <c r="AT16">
+        <f>AS16</f>
+        <v>12</v>
+      </c>
+      <c r="AU16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" ref="AV16:AW17" si="12">AU16</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AW16">
+        <v>8.4</v>
+      </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:49">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -3212,7 +3531,7 @@
         <v>7.35</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.35</v>
       </c>
       <c r="AE17">
@@ -3235,22 +3554,22 @@
         <v>7.05</v>
       </c>
       <c r="AJ17">
-        <f t="shared" ref="AJ17:AJ21" si="7">AI17</f>
+        <f t="shared" ref="AJ17:AJ21" si="13">AI17</f>
         <v>7.05</v>
       </c>
       <c r="AK17">
         <v>7</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AO17">
@@ -3262,8 +3581,31 @@
       <c r="AQ17">
         <v>7</v>
       </c>
+      <c r="AR17">
+        <f t="shared" ref="AR17:AS24" si="14">AQ17</f>
+        <v>7</v>
+      </c>
+      <c r="AS17">
+        <v>7</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" ref="AT17:AV24" si="15">AS17</f>
+        <v>7</v>
+      </c>
+      <c r="AU17">
+        <f>AT17</f>
+        <v>7</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:49">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -3352,7 +3694,7 @@
         <v>8.25</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
       <c r="AE18">
@@ -3363,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="AG18">
-        <f t="shared" ref="AG18:AI51" si="8">AF18</f>
+        <f t="shared" ref="AG18:AI51" si="16">AF18</f>
         <v>7</v>
       </c>
       <c r="AH18">
@@ -3374,22 +3716,22 @@
         <v>6</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AK18">
         <v>6</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AO18">
@@ -3401,8 +3743,31 @@
       <c r="AQ18">
         <v>6</v>
       </c>
+      <c r="AR18">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AS18">
+        <v>5</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <f>AU18</f>
+        <v>5</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" ref="AW18:AW26" si="17">AV18</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:49">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -3489,7 +3854,7 @@
         <v>8</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AE19">
@@ -3501,33 +3866,33 @@
         <v>8</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="AH19">
         <v>8</v>
       </c>
       <c r="AI19">
-        <f t="shared" ref="AI19:AL29" si="9">AH19</f>
+        <f t="shared" ref="AI19:AL29" si="18">AH19</f>
         <v>8</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AK19">
         <v>8</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AO19">
@@ -3539,8 +3904,31 @@
       <c r="AQ19">
         <v>8</v>
       </c>
+      <c r="AR19">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="AS19">
+        <f>AR19</f>
+        <v>8</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AV19">
+        <v>7.5</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="17"/>
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:49">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -3627,7 +4015,7 @@
         <v>8.93</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.93</v>
       </c>
       <c r="AE20">
@@ -3639,33 +4027,33 @@
         <v>8.93</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.93</v>
       </c>
       <c r="AH20">
         <v>8.93</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>8.93</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.93</v>
       </c>
       <c r="AK20">
         <v>8.93</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.93</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.93</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.93</v>
       </c>
       <c r="AO20">
@@ -3677,8 +4065,32 @@
       <c r="AQ20">
         <v>8.93</v>
       </c>
+      <c r="AR20">
+        <f t="shared" si="14"/>
+        <v>8.93</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="14"/>
+        <v>8.93</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="15"/>
+        <v>8.93</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="15"/>
+        <v>8.93</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="15"/>
+        <v>8.93</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="17"/>
+        <v>8.93</v>
+      </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:49">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -3767,7 +4179,7 @@
         <v>7</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AE21">
@@ -3779,33 +4191,33 @@
         <v>7</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="AH21">
         <v>8.25</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>8.25</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.25</v>
       </c>
       <c r="AK21">
         <v>8.25</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.25</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.25</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.25</v>
       </c>
       <c r="AO21">
@@ -3817,8 +4229,32 @@
       <c r="AQ21">
         <v>8.25</v>
       </c>
+      <c r="AR21">
+        <f t="shared" si="14"/>
+        <v>8.25</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="14"/>
+        <v>8.25</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="15"/>
+        <v>8.25</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="15"/>
+        <v>8.25</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="15"/>
+        <v>8.25</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="17"/>
+        <v>8.25</v>
+      </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:49">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3907,7 +4343,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
       <c r="AE22">
@@ -3919,14 +4355,14 @@
         <v>9.5</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.5</v>
       </c>
       <c r="AH22">
         <v>9.5</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>9.5</v>
       </c>
       <c r="AJ22">
@@ -3939,11 +4375,11 @@
         <v>8</v>
       </c>
       <c r="AM22">
-        <f t="shared" ref="AM22:AN34" si="10">AL22</f>
+        <f t="shared" ref="AM22:AN34" si="19">AL22</f>
         <v>8</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="AO22">
@@ -3955,8 +4391,32 @@
       <c r="AQ22">
         <v>8</v>
       </c>
+      <c r="AR22">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:49">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
@@ -4045,7 +4505,7 @@
         <v>1.9</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
       <c r="AE23">
@@ -4057,14 +4517,14 @@
         <v>1.9</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.9</v>
       </c>
       <c r="AH23">
         <v>4.95</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>4.95</v>
       </c>
       <c r="AJ23">
@@ -4079,11 +4539,11 @@
         <v>6</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="AO23">
@@ -4095,8 +4555,32 @@
       <c r="AQ23">
         <v>6</v>
       </c>
+      <c r="AR23">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:49">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -4185,7 +4669,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AE24">
@@ -4197,7 +4681,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AH24">
@@ -4205,15 +4689,15 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AL24">
@@ -4221,11 +4705,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="AO24">
@@ -4237,8 +4721,32 @@
       <c r="AQ24">
         <v>9.8000000000000007</v>
       </c>
+      <c r="AR24">
+        <f t="shared" si="14"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="14"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="15"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="15"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="15"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="17"/>
+        <v>9.8000000000000007</v>
+      </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:49">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -4327,7 +4835,7 @@
         <v>5</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE25">
@@ -4339,35 +4847,35 @@
         <v>5</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AO25">
@@ -4379,8 +4887,29 @@
       <c r="AQ25">
         <v>5</v>
       </c>
+      <c r="AR25">
+        <v>5</v>
+      </c>
+      <c r="AS25">
+        <v>5</v>
+      </c>
+      <c r="AT25">
+        <v>5</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" ref="AU25:AV29" si="20">AT25</f>
+        <v>5</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:49">
       <c r="A26" s="1" t="s">
         <v>98</v>
       </c>
@@ -4467,7 +4996,7 @@
         <v>6.25</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="AE26">
@@ -4479,35 +5008,35 @@
         <v>6.25</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.25</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.25</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.25</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.25</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.25</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.25</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.25</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.25</v>
       </c>
       <c r="AO26">
@@ -4519,8 +5048,31 @@
       <c r="AQ26">
         <v>6.25</v>
       </c>
+      <c r="AR26">
+        <f>AQ26</f>
+        <v>6.25</v>
+      </c>
+      <c r="AS26">
+        <f>AR26</f>
+        <v>6.25</v>
+      </c>
+      <c r="AT26">
+        <v>4</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:49">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -4609,7 +5161,7 @@
         <v>6.75</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
       <c r="AE27">
@@ -4621,35 +5173,35 @@
         <v>6.75</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.75</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.75</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.75</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.75</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.75</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>6.75</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.75</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.75</v>
       </c>
       <c r="AO27">
@@ -4661,8 +5213,32 @@
       <c r="AQ27">
         <v>6.75</v>
       </c>
+      <c r="AR27">
+        <f t="shared" ref="AR27:AT29" si="21">AQ27</f>
+        <v>6.75</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="21"/>
+        <v>6.75</v>
+      </c>
+      <c r="AT27">
+        <f>AS27</f>
+        <v>6.75</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="20"/>
+        <v>6.75</v>
+      </c>
+      <c r="AV27">
+        <f>AU27</f>
+        <v>6.75</v>
+      </c>
+      <c r="AW27">
+        <f>AV27</f>
+        <v>6.75</v>
+      </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:49">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -4747,7 +5323,7 @@
         <v>7.81</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.81</v>
       </c>
       <c r="AE28">
@@ -4759,35 +5335,35 @@
         <v>7.81</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.81</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.81</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.81</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.81</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.81</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>7.81</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>7.81</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>7.81</v>
       </c>
       <c r="AO28">
@@ -4799,8 +5375,30 @@
       <c r="AQ28">
         <v>7.81</v>
       </c>
+      <c r="AR28">
+        <f t="shared" si="21"/>
+        <v>7.81</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="21"/>
+        <v>7.81</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="21"/>
+        <v>7.81</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="20"/>
+        <v>7.81</v>
+      </c>
+      <c r="AV28">
+        <v>7.5</v>
+      </c>
+      <c r="AW28">
+        <v>7.25</v>
+      </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:49">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -4889,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE29">
@@ -4901,35 +5499,35 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AO29">
@@ -4941,8 +5539,30 @@
       <c r="AQ29">
         <v>0</v>
       </c>
+      <c r="AR29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:49">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -5040,34 +5660,34 @@
         <v>9.25</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.25</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.25</v>
       </c>
       <c r="AI30">
         <v>8.5</v>
       </c>
       <c r="AJ30">
-        <f t="shared" ref="AJ30:AL34" si="11">AI30</f>
+        <f t="shared" ref="AJ30:AL34" si="22">AI30</f>
         <v>8.5</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>8.5</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>8.5</v>
       </c>
       <c r="AM30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8.5</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>8.5</v>
       </c>
       <c r="AO30">
@@ -5079,8 +5699,26 @@
       <c r="AQ30">
         <v>8.5</v>
       </c>
+      <c r="AR30">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AS30">
+        <v>7.7</v>
+      </c>
+      <c r="AT30">
+        <v>7.7</v>
+      </c>
+      <c r="AU30">
+        <v>7.7</v>
+      </c>
+      <c r="AV30">
+        <v>7.6</v>
+      </c>
+      <c r="AW30">
+        <v>7.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:49">
       <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
@@ -5169,7 +5807,7 @@
         <v>9</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AE31">
@@ -5181,11 +5819,11 @@
         <v>9</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="AI31">
@@ -5193,23 +5831,23 @@
         <v>9</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="AM31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="AO31">
@@ -5221,8 +5859,27 @@
       <c r="AQ31">
         <v>9</v>
       </c>
+      <c r="AR31">
+        <v>9</v>
+      </c>
+      <c r="AS31">
+        <v>11.5</v>
+      </c>
+      <c r="AT31">
+        <v>10.5</v>
+      </c>
+      <c r="AU31">
+        <v>11.5</v>
+      </c>
+      <c r="AV31">
+        <v>11.5</v>
+      </c>
+      <c r="AW31">
+        <f>AV31</f>
+        <v>11.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:49">
       <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
@@ -5311,7 +5968,7 @@
         <v>7.6</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
       <c r="AE32">
@@ -5323,31 +5980,31 @@
         <v>7.6</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.6</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.6</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.6</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.6</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.6</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.6</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>7.6</v>
       </c>
       <c r="AN32">
@@ -5362,8 +6019,29 @@
       <c r="AQ32">
         <v>6.2</v>
       </c>
+      <c r="AR32">
+        <v>5.9</v>
+      </c>
+      <c r="AS32">
+        <v>5.9</v>
+      </c>
+      <c r="AT32">
+        <f>AS32</f>
+        <v>5.9</v>
+      </c>
+      <c r="AU32">
+        <f>AT32</f>
+        <v>5.9</v>
+      </c>
+      <c r="AV32">
+        <v>5.9</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" ref="AW32:AW38" si="23">AV32</f>
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:49">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5452,7 +6130,7 @@
         <v>7.5</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="AE33">
@@ -5464,30 +6142,30 @@
         <v>7.5</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.5</v>
       </c>
       <c r="AH33">
         <v>7.1</v>
       </c>
       <c r="AI33">
-        <f t="shared" ref="AI33:AI35" si="12">AH33</f>
+        <f t="shared" ref="AI33:AI35" si="24">AH33</f>
         <v>7.1</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.1</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.1</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>7.1</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>7.1</v>
       </c>
       <c r="AN33">
@@ -5502,8 +6180,30 @@
       <c r="AQ33">
         <v>6.5</v>
       </c>
+      <c r="AR33">
+        <f>AQ33</f>
+        <v>6.5</v>
+      </c>
+      <c r="AS33">
+        <v>6.5</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" ref="AT33:AW51" si="25">AS33</f>
+        <v>6.5</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AV33">
+        <v>7.25</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="23"/>
+        <v>7.25</v>
+      </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:49">
       <c r="A34" s="1" t="s">
         <v>114</v>
       </c>
@@ -5592,7 +6292,7 @@
         <v>6.9</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9</v>
       </c>
       <c r="AE34">
@@ -5604,30 +6304,30 @@
         <v>6.9</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.9</v>
       </c>
       <c r="AH34">
         <v>6.9</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.9</v>
       </c>
       <c r="AJ34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6.9</v>
       </c>
       <c r="AK34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6.9</v>
       </c>
       <c r="AL34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>6.9</v>
       </c>
       <c r="AM34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.9</v>
       </c>
       <c r="AN34">
@@ -5642,8 +6342,30 @@
       <c r="AQ34">
         <v>3</v>
       </c>
+      <c r="AR34">
+        <f t="shared" ref="AR34:AS51" si="26">AQ34</f>
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>2.5</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="AV34">
+        <v>2.5</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:49">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -5730,32 +6452,32 @@
         <v>10.5</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="AE35">
         <v>7</v>
       </c>
       <c r="AF35">
-        <f t="shared" ref="AF35:AF51" si="13">AE35</f>
+        <f t="shared" ref="AF35:AF51" si="27">AE35</f>
         <v>7</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="AH35">
         <v>6.5</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>6.5</v>
       </c>
       <c r="AJ35">
         <v>6.4</v>
       </c>
       <c r="AK35">
-        <f t="shared" ref="AK35:AN37" si="14">AJ35</f>
+        <f t="shared" ref="AK35:AN37" si="28">AJ35</f>
         <v>6.4</v>
       </c>
       <c r="AL35">
@@ -5776,8 +6498,31 @@
       <c r="AQ35">
         <v>4.3099999999999996</v>
       </c>
+      <c r="AR35">
+        <f t="shared" si="26"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AS35">
+        <f>AR35</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AT35">
+        <f t="shared" si="25"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="25"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AV35">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="23"/>
+        <v>4.3099999999999996</v>
+      </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:49">
       <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
@@ -5862,7 +6607,7 @@
         <v>8.5</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
       <c r="AE36">
@@ -5870,11 +6615,11 @@
         <v>8.5</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8.5</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.5</v>
       </c>
       <c r="AH36">
@@ -5889,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AK36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL36">
@@ -5913,8 +6658,31 @@
       <c r="AQ36">
         <v>0</v>
       </c>
+      <c r="AR36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:49">
       <c r="A37" s="1" t="s">
         <v>123</v>
       </c>
@@ -6003,7 +6771,7 @@
         <v>6</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AE37">
@@ -6011,38 +6779,38 @@
         <v>6</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="AI37">
         <v>6</v>
       </c>
       <c r="AJ37">
-        <f t="shared" ref="AJ37:AK51" si="15">AI37</f>
+        <f t="shared" ref="AJ37:AK51" si="29">AI37</f>
         <v>6</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AM37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AN37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AO37">
@@ -6054,8 +6822,31 @@
       <c r="AQ37">
         <v>6</v>
       </c>
+      <c r="AR37">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="AS37">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="AT37">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:49">
       <c r="A38" s="1" t="s">
         <v>124</v>
       </c>
@@ -6144,7 +6935,7 @@
         <v>6.6</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="AE38">
@@ -6152,37 +6943,37 @@
         <v>6.6</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>6.6</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.6</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.6</v>
       </c>
       <c r="AI38">
         <v>7.9</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>7.9</v>
       </c>
       <c r="AK38">
         <v>7.6</v>
       </c>
       <c r="AL38">
-        <f t="shared" ref="AL38:AN48" si="16">AK38</f>
+        <f t="shared" ref="AL38:AN48" si="30">AK38</f>
         <v>7.6</v>
       </c>
       <c r="AM38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>7.6</v>
       </c>
       <c r="AN38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>7.6</v>
       </c>
       <c r="AO38">
@@ -6194,8 +6985,32 @@
       <c r="AQ38">
         <v>7.6</v>
       </c>
+      <c r="AR38">
+        <f t="shared" si="26"/>
+        <v>7.6</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="26"/>
+        <v>7.6</v>
+      </c>
+      <c r="AT38">
+        <f t="shared" si="25"/>
+        <v>7.6</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="25"/>
+        <v>7.6</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" si="25"/>
+        <v>7.6</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" si="23"/>
+        <v>7.6</v>
+      </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:49">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -6282,7 +7097,7 @@
         <v>9.99</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.99</v>
       </c>
       <c r="AE39">
@@ -6290,15 +7105,15 @@
         <v>9.99</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.99</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.99</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.99</v>
       </c>
       <c r="AI39">
@@ -6306,7 +7121,7 @@
         <v>9.99</v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>9.99</v>
       </c>
       <c r="AK39">
@@ -6314,15 +7129,15 @@
         <v>9.99</v>
       </c>
       <c r="AL39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>9.99</v>
       </c>
       <c r="AM39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>9.99</v>
       </c>
       <c r="AN39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>9.99</v>
       </c>
       <c r="AO39">
@@ -6334,8 +7149,31 @@
       <c r="AQ39">
         <v>9.99</v>
       </c>
+      <c r="AR39">
+        <f t="shared" si="26"/>
+        <v>9.99</v>
+      </c>
+      <c r="AS39">
+        <f t="shared" si="26"/>
+        <v>9.99</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" si="25"/>
+        <v>9.99</v>
+      </c>
+      <c r="AU39">
+        <f t="shared" si="25"/>
+        <v>9.99</v>
+      </c>
+      <c r="AV39">
+        <f t="shared" si="25"/>
+        <v>9.99</v>
+      </c>
+      <c r="AW39">
+        <v>8.99</v>
+      </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:49">
       <c r="A40" s="1" t="s">
         <v>129</v>
       </c>
@@ -6424,7 +7262,7 @@
         <v>9</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AE40">
@@ -6432,41 +7270,41 @@
         <v>9</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AH40">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AI40">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AJ40">
-        <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="AK40">
-        <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="AL40">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="AM40">
+      <c r="AH40">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="AN40">
+      <c r="AI40">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
+      <c r="AJ40">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="AM40">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
       <c r="AO40">
         <v>7</v>
       </c>
@@ -6476,8 +7314,32 @@
       <c r="AQ40">
         <v>7</v>
       </c>
+      <c r="AR40">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="AS40">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="AT40">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="AU40">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="AV40">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="AW40">
+        <f>AV40</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:49">
       <c r="A41" s="1" t="s">
         <v>130</v>
       </c>
@@ -6566,7 +7428,7 @@
         <v>5</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE41">
@@ -6574,41 +7436,41 @@
         <v>5</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AJ41">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AK41">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AL41">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="AM41">
+      <c r="AH41">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="AN41">
+      <c r="AI41">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
+      <c r="AJ41">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
       <c r="AO41">
         <v>5</v>
       </c>
@@ -6618,8 +7480,32 @@
       <c r="AQ41">
         <v>5</v>
       </c>
+      <c r="AR41">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="AS41">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="AT41">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="AU41">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:49">
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
@@ -6708,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE42">
@@ -6716,39 +7602,39 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AM42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AO42">
@@ -6760,8 +7646,32 @@
       <c r="AQ42">
         <v>0</v>
       </c>
+      <c r="AR42">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:49">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -6857,41 +7767,41 @@
         <v>6.5</v>
       </c>
       <c r="AF43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>6.5</v>
       </c>
       <c r="AG43">
-        <f t="shared" si="8"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH43">
-        <f t="shared" si="8"/>
-        <v>6.5</v>
-      </c>
-      <c r="AI43">
-        <f t="shared" si="8"/>
-        <v>6.5</v>
-      </c>
-      <c r="AJ43">
-        <f t="shared" si="15"/>
-        <v>6.5</v>
-      </c>
-      <c r="AK43">
-        <f t="shared" si="15"/>
-        <v>6.5</v>
-      </c>
-      <c r="AL43">
         <f t="shared" si="16"/>
         <v>6.5</v>
       </c>
-      <c r="AM43">
+      <c r="AH43">
         <f t="shared" si="16"/>
         <v>6.5</v>
       </c>
-      <c r="AN43">
+      <c r="AI43">
         <f t="shared" si="16"/>
         <v>6.5</v>
       </c>
+      <c r="AJ43">
+        <f t="shared" si="29"/>
+        <v>6.5</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="29"/>
+        <v>6.5</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="30"/>
+        <v>6.5</v>
+      </c>
+      <c r="AM43">
+        <f t="shared" si="30"/>
+        <v>6.5</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="30"/>
+        <v>6.5</v>
+      </c>
       <c r="AO43">
         <v>6.5</v>
       </c>
@@ -6901,8 +7811,32 @@
       <c r="AQ43">
         <v>6.5</v>
       </c>
+      <c r="AR43">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="AS43">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="AT43">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:49">
       <c r="A44" s="1" t="s">
         <v>133</v>
       </c>
@@ -6991,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE44">
@@ -6999,39 +7933,39 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AM44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AO44">
@@ -7043,8 +7977,32 @@
       <c r="AQ44">
         <v>0</v>
       </c>
+      <c r="AR44">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <f>AU44</f>
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" ref="AW44:AW51" si="31">AV44</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:49">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -7131,7 +8089,7 @@
         <v>5</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AE45">
@@ -7139,41 +8097,41 @@
         <v>5</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AH45">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AI45">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AJ45">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AK45">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AL45">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="AM45">
+      <c r="AH45">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="AN45">
+      <c r="AI45">
         <f t="shared" si="16"/>
         <v>5</v>
       </c>
+      <c r="AJ45">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AM45">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
       <c r="AO45">
         <v>5</v>
       </c>
@@ -7183,8 +8141,30 @@
       <c r="AQ45">
         <v>5</v>
       </c>
+      <c r="AR45">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="AS45">
+        <v>4.95</v>
+      </c>
+      <c r="AT45">
+        <f t="shared" si="25"/>
+        <v>4.95</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="25"/>
+        <v>4.95</v>
+      </c>
+      <c r="AV45">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="31"/>
+        <v>4.8499999999999996</v>
+      </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:49">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -7273,7 +8253,7 @@
         <v>9.75</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.75</v>
       </c>
       <c r="AE46">
@@ -7281,7 +8261,7 @@
         <v>9.75</v>
       </c>
       <c r="AF46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.75</v>
       </c>
       <c r="AG46">
@@ -7291,27 +8271,27 @@
         <v>8.5</v>
       </c>
       <c r="AI46">
-        <f t="shared" ref="AI46:AI48" si="17">AH46</f>
+        <f t="shared" ref="AI46:AI48" si="32">AH46</f>
         <v>8.5</v>
       </c>
       <c r="AJ46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>8.5</v>
       </c>
       <c r="AK46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>8.5</v>
       </c>
       <c r="AL46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>8.5</v>
       </c>
       <c r="AM46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>8.5</v>
       </c>
       <c r="AN46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>8.5</v>
       </c>
       <c r="AO46">
@@ -7323,8 +8303,32 @@
       <c r="AQ46">
         <v>8.5</v>
       </c>
+      <c r="AR46">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="AS46">
+        <f>AR46</f>
+        <v>8.5</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="25"/>
+        <v>8.5</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="25"/>
+        <v>8.5</v>
+      </c>
+      <c r="AV46">
+        <f>AU46</f>
+        <v>8.5</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="31"/>
+        <v>8.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:49">
       <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
@@ -7413,7 +8417,7 @@
         <v>6</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AE47">
@@ -7421,38 +8425,38 @@
         <v>6</v>
       </c>
       <c r="AF47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="AG47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="AH47">
         <v>6</v>
       </c>
       <c r="AI47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="AJ47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AK47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AL47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="AM47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="AN47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="AO47">
@@ -7464,8 +8468,32 @@
       <c r="AQ47">
         <v>6</v>
       </c>
+      <c r="AR47">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="AS47">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:49">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -7554,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE48">
@@ -7562,38 +8590,38 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH48">
         <v>0</v>
       </c>
       <c r="AI48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AM48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AO48">
@@ -7605,8 +8633,32 @@
       <c r="AQ48">
         <v>0</v>
       </c>
+      <c r="AR48">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:49">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -7693,7 +8745,7 @@
         <v>9</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AE49">
@@ -7701,11 +8753,11 @@
         <v>9</v>
       </c>
       <c r="AF49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="AG49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="AH49">
@@ -7715,11 +8767,11 @@
         <v>8.5</v>
       </c>
       <c r="AJ49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>8.5</v>
       </c>
       <c r="AK49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>8.5</v>
       </c>
       <c r="AL49">
@@ -7740,8 +8792,32 @@
       <c r="AQ49">
         <v>6.5</v>
       </c>
+      <c r="AR49">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="AS49">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AU49">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" si="31"/>
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:49">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -7830,7 +8906,7 @@
         <v>7.9</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.9</v>
       </c>
       <c r="AE50">
@@ -7838,11 +8914,11 @@
         <v>7.9</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>7.9</v>
       </c>
       <c r="AG50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.9</v>
       </c>
       <c r="AH50">
@@ -7852,11 +8928,11 @@
         <v>7.9</v>
       </c>
       <c r="AJ50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>7.9</v>
       </c>
       <c r="AK50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>7.9</v>
       </c>
       <c r="AL50">
@@ -7878,8 +8954,32 @@
       <c r="AQ50">
         <v>7.9</v>
       </c>
+      <c r="AR50">
+        <f t="shared" si="26"/>
+        <v>7.9</v>
+      </c>
+      <c r="AS50">
+        <f t="shared" si="26"/>
+        <v>7.9</v>
+      </c>
+      <c r="AT50">
+        <f t="shared" si="25"/>
+        <v>7.9</v>
+      </c>
+      <c r="AU50">
+        <f t="shared" si="25"/>
+        <v>7.9</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" si="25"/>
+        <v>7.9</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="31"/>
+        <v>7.9</v>
+      </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:49">
       <c r="A51" s="1" t="s">
         <v>144</v>
       </c>
@@ -7968,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE51">
@@ -7976,11 +9076,11 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AG51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH51">
@@ -7990,11 +9090,11 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL51">
@@ -8013,6 +9113,30 @@
         <v>0</v>
       </c>
       <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>

--- a/threeWay_FE/stateCIT_rates_1976_2023.xlsx
+++ b/threeWay_FE/stateCIT_rates_1976_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/GitHub/ST-Apportionment/threeWay_FE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3800DE68-1635-A743-BA66-572EF27CA0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E015D-AD30-9F45-AFEE-8240944ED4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15660" yWindow="-3100" windowWidth="15640" windowHeight="17500" xr2:uid="{902382AD-2791-2E4C-8E2C-F6478351B2FD}"/>
+    <workbookView xWindow="-32000" yWindow="-3100" windowWidth="32000" windowHeight="17500" xr2:uid="{902382AD-2791-2E4C-8E2C-F6478351B2FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,14 +864,14 @@
   <dimension ref="A1:AW51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY6" sqref="AY6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="28" width="10.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="29" max="42" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="28" width="10.83203125" style="4" customWidth="1"/>
+    <col min="29" max="42" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
